--- a/20 開発資料/03.詳細設計/プロセス概要(44_参加者出席ファイル取込).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(44_参加者出席ファイル取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1620" windowWidth="22725" windowHeight="9930"/>
+    <workbookView xWindow="11880" yWindow="105" windowWidth="12015" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -204,16 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>受信フォルダのファイルを作業フォルダへコピーする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -227,16 +217,6 @@
   </si>
   <si>
     <t>7)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作業フォルダのファイルを削除。</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1242,12 +1222,215 @@
     <t>c)</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <r>
+      <t>受信フォルダのファイルを作業フォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、バックアップフォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>へコピーする。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※作業フォルダ内のファイルを一度全て削除してから、受信ファイルをコピーする。</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2014/10/11変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※バックアップフォルダに同じ名前のファイルが既に存在した場合</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックアップファイル名に年月日時分秒を付加する。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジフン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名：元のファイル名 + 「_yyyyMMddHHmmss」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>バックアップフォルダ：Web.configの</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PATH_RECEIVE_BKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に設定されているディレクトリ</t>
+    </r>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受信フォルダのファイル、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作業フォルダのファイルを削除。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※受信フォルダから削除するのは、3)でコピーしたファイルのみが対象。</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1324,6 +1507,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1586,7 +1784,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,25 +1955,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,110 +2061,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1907,6 +2090,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1917,8 +2103,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1929,26 +2121,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1962,57 +2195,31 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2326,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ108"/>
+  <dimension ref="A1:AZ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
@@ -2338,273 +2545,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67">
-        <v>41666</v>
-      </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81">
+        <v>41923</v>
+      </c>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="75"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="61"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="9" t="s">
@@ -2900,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3009,7 +3216,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N16" s="2"/>
       <c r="P16" s="2"/>
@@ -3117,7 +3324,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N18" s="2"/>
       <c r="P18" s="2"/>
@@ -3172,7 +3379,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N19" s="2"/>
       <c r="P19" s="2"/>
@@ -3280,10 +3487,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3392,7 +3599,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3446,7 +3653,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -3550,7 +3757,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="4"/>
       <c r="O26" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -3657,10 +3864,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3823,7 +4030,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3931,7 +4138,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N33" s="2"/>
       <c r="P33" s="2"/>
@@ -4039,10 +4246,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4096,7 +4302,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -4146,7 +4352,12 @@
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="133" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4165,7 +4376,9 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="134" t="s">
+        <v>148</v>
+      </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
@@ -4197,14 +4410,10 @@
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="P38" s="5"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -4255,7 +4464,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -4265,9 +4476,6 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -4308,10 +4516,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -4320,9 +4526,6 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -4332,6 +4535,7 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
@@ -4362,9 +4566,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4372,9 +4577,6 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -4384,6 +4586,7 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
@@ -4414,9 +4617,8 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="4" t="s">
-        <v>89</v>
+      <c r="N42" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4427,8 +4629,6 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -4438,6 +4638,7 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
@@ -4468,8 +4669,9 @@
       <c r="J43" s="3"/>
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -4479,8 +4681,6 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -4490,6 +4690,7 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
@@ -4520,10 +4721,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s">
-        <v>90</v>
-      </c>
+      <c r="N44" s="12"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -4533,9 +4731,6 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -4545,6 +4740,7 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -4574,9 +4770,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -4597,6 +4791,7 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
@@ -4626,13 +4821,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="3"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
-      <c r="O46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="L46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -4652,6 +4848,7 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
@@ -4682,6 +4879,9 @@
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -4701,6 +4901,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
@@ -4731,13 +4932,11 @@
       <c r="J48" s="3"/>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="M48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -4787,7 +4986,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="1"/>
       <c r="L49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -4840,13 +5039,11 @@
       <c r="K50" s="1"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="N50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -4854,7 +5051,6 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
@@ -4907,7 +5103,6 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
@@ -4949,10 +5144,12 @@
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s">
+        <v>88</v>
+      </c>
       <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -5002,13 +5199,13 @@
       <c r="J53" s="3"/>
       <c r="K53" s="1"/>
       <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -5054,8 +5251,12 @@
       <c r="J54" s="3"/>
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -5105,11 +5306,6 @@
       <c r="J55" s="3"/>
       <c r="K55" s="1"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="O55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -5160,8 +5356,11 @@
       <c r="K56" s="1"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="O56" s="12" t="s">
-        <v>97</v>
+      <c r="O56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -5212,8 +5411,9 @@
       <c r="J57" s="3"/>
       <c r="K57" s="1"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="O57" s="12"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -5264,8 +5464,12 @@
       <c r="K58" s="1"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="P58" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -5317,9 +5521,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="Q59" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -5368,10 +5573,11 @@
       <c r="J60" s="3"/>
       <c r="K60" s="1"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="Q60" t="s">
-        <v>40</v>
-      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -5420,10 +5626,13 @@
       <c r="J61" s="3"/>
       <c r="K61" s="1"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
+      <c r="T61" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
@@ -5468,10 +5677,9 @@
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="4"/>
-      <c r="P62" s="53" t="s">
-        <v>76</v>
-      </c>
+      <c r="L62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -5491,7 +5699,6 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" s="2"/>
@@ -5523,7 +5730,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="O63" s="12"/>
+      <c r="O63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -5575,7 +5785,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="O64" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -5677,7 +5887,10 @@
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
       <c r="L66" s="2"/>
-      <c r="P66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -5726,11 +5939,11 @@
       <c r="I67" s="2"/>
       <c r="J67" s="3"/>
       <c r="K67" s="1"/>
+      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -5778,9 +5991,11 @@
       <c r="I68" s="2"/>
       <c r="J68" s="3"/>
       <c r="K68" s="1"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="12"/>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s">
+        <v>38</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -5828,11 +6043,8 @@
       <c r="I69" s="2"/>
       <c r="J69" s="3"/>
       <c r="K69" s="1"/>
+      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="O69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -5880,12 +6092,10 @@
       <c r="I70" s="2"/>
       <c r="J70" s="3"/>
       <c r="K70" s="1"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="P70" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
@@ -5905,6 +6115,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
@@ -5934,8 +6145,9 @@
       <c r="I71" s="2"/>
       <c r="J71" s="3"/>
       <c r="K71" s="1"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="O71" s="12"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -5984,14 +6196,16 @@
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="O72" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
@@ -6035,13 +6249,14 @@
       <c r="I73" s="2"/>
       <c r="J73" s="3"/>
       <c r="K73" s="1"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="2"/>
-      <c r="P73" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="O73" s="12"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
@@ -6085,14 +6300,13 @@
       <c r="I74" s="2"/>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="L74" s="2"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
@@ -6136,8 +6350,19 @@
       <c r="I75" s="2"/>
       <c r="J75" s="3"/>
       <c r="K75" s="1"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
@@ -6177,11 +6402,17 @@
       <c r="I76" s="2"/>
       <c r="J76" s="3"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="P76" s="53" t="s">
-        <v>81</v>
-      </c>
+      <c r="N76" s="12"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
@@ -6221,8 +6452,19 @@
       <c r="I77" s="2"/>
       <c r="J77" s="3"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="2"/>
       <c r="M77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
@@ -6265,8 +6507,9 @@
       <c r="M78" s="14"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -6365,15 +6608,14 @@
       <c r="I80" s="2"/>
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="4"/>
-      <c r="P80" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="M80" s="14"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
@@ -6388,7 +6630,6 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
       <c r="AM80" s="2"/>
@@ -6418,17 +6659,13 @@
       <c r="I81" s="2"/>
       <c r="J81" s="3"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="14"/>
       <c r="N81" s="2"/>
-      <c r="P81" s="53" t="s">
-        <v>137</v>
+      <c r="P81" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
@@ -6443,7 +6680,6 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
       <c r="AL81" s="2"/>
       <c r="AM81" s="2"/>
@@ -6475,11 +6711,12 @@
       <c r="K82" s="1"/>
       <c r="M82" s="14"/>
       <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
@@ -6525,18 +6762,6 @@
       <c r="K83" s="1"/>
       <c r="M83" s="14"/>
       <c r="N83" s="2"/>
-      <c r="O83" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
@@ -6576,20 +6801,11 @@
       <c r="I84" s="2"/>
       <c r="J84" s="3"/>
       <c r="K84" s="1"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="2"/>
-      <c r="P84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="P84" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
@@ -6629,18 +6845,8 @@
       <c r="I85" s="2"/>
       <c r="J85" s="3"/>
       <c r="K85" s="1"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
@@ -6682,8 +6888,9 @@
       <c r="K86" s="1"/>
       <c r="M86" s="14"/>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="12"/>
+      <c r="O86" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -6732,9 +6939,8 @@
       <c r="I87" s="2"/>
       <c r="J87" s="3"/>
       <c r="K87" s="1"/>
-      <c r="M87" s="13"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="12"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -6754,7 +6960,6 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
@@ -6784,11 +6989,9 @@
       <c r="I88" s="2"/>
       <c r="J88" s="3"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" t="s">
-        <v>130</v>
+      <c r="L88" s="4"/>
+      <c r="P88" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
@@ -6840,6 +7043,11 @@
       <c r="J89" s="3"/>
       <c r="K89" s="1"/>
       <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="P89" s="53" t="s">
+        <v>135</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
@@ -6889,11 +7097,9 @@
       <c r="I90" s="2"/>
       <c r="J90" s="3"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="2"/>
-      <c r="N90" t="s">
-        <v>34</v>
-      </c>
-      <c r="O90" s="2"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="2"/>
+      <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -6912,7 +7118,6 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
       <c r="AK90" s="2"/>
       <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
@@ -6942,10 +7147,12 @@
       <c r="I91" s="2"/>
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="2"/>
-      <c r="O91" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="M91" s="14"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -6964,7 +7171,6 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
       <c r="AM91" s="2"/>
@@ -6994,10 +7200,11 @@
       <c r="I92" s="2"/>
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="2"/>
+      <c r="M92" s="14"/>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="P92" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
@@ -7017,7 +7224,6 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
-      <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
       <c r="AL92" s="2"/>
       <c r="AM92" s="2"/>
@@ -7047,11 +7253,9 @@
       <c r="I93" s="2"/>
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="2"/>
-      <c r="N93" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="P93" s="2"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
@@ -7071,7 +7275,6 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
-      <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
       <c r="AL93" s="2"/>
       <c r="AM93" s="2"/>
@@ -7101,10 +7304,10 @@
       <c r="I94" s="2"/>
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
+      <c r="P94" s="12"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
@@ -7124,7 +7327,6 @@
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
-      <c r="AJ94" s="2"/>
       <c r="AK94" s="2"/>
       <c r="AL94" s="2"/>
       <c r="AM94" s="2"/>
@@ -7154,9 +7356,9 @@
       <c r="I95" s="2"/>
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="M95" s="13"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="12"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
@@ -7207,12 +7409,11 @@
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
       <c r="L96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="M96" t="s">
+        <v>128</v>
+      </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
@@ -7220,6 +7421,9 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
@@ -7259,9 +7463,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
+      <c r="L97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
@@ -7269,6 +7471,9 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
@@ -7309,18 +7514,19 @@
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+      <c r="N98" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
@@ -7361,16 +7567,18 @@
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
@@ -7411,8 +7619,9 @@
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
@@ -7420,6 +7629,9 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
@@ -7459,13 +7671,11 @@
       <c r="I101" s="2"/>
       <c r="J101" s="3"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="N101" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
@@ -7473,6 +7683,9 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
@@ -7514,6 +7727,8 @@
       <c r="K102" s="1"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
@@ -7521,6 +7736,9 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
@@ -7563,7 +7781,6 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
-      <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -7571,6 +7788,9 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
@@ -7611,14 +7831,12 @@
       <c r="J104" s="3"/>
       <c r="K104" s="1"/>
       <c r="L104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="M104" s="133" t="s">
+        <v>26</v>
       </c>
       <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
@@ -7635,7 +7853,9 @@
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
-      <c r="AJ104" s="2"/>
+      <c r="AJ104" s="134" t="s">
+        <v>148</v>
+      </c>
       <c r="AK104" s="2"/>
       <c r="AL104" s="2"/>
       <c r="AM104" s="2"/>
@@ -7665,9 +7885,9 @@
       <c r="I105" s="2"/>
       <c r="J105" s="3"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
@@ -7715,8 +7935,10 @@
       <c r="J106" s="3"/>
       <c r="K106" s="1"/>
       <c r="L106" s="2"/>
+      <c r="M106" s="135" t="s">
+        <v>152</v>
+      </c>
       <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
@@ -7767,6 +7989,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
@@ -7774,9 +7997,6 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
@@ -7805,61 +8025,577 @@
       <c r="AZ107" s="3"/>
     </row>
     <row r="108" spans="1:52">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="7"/>
-      <c r="AD108" s="7"/>
-      <c r="AE108" s="7"/>
-      <c r="AF108" s="7"/>
-      <c r="AG108" s="7"/>
-      <c r="AH108" s="7"/>
-      <c r="AI108" s="7"/>
-      <c r="AJ108" s="7"/>
-      <c r="AK108" s="7"/>
-      <c r="AL108" s="7"/>
-      <c r="AM108" s="7"/>
-      <c r="AN108" s="7"/>
-      <c r="AO108" s="7"/>
-      <c r="AP108" s="8"/>
-      <c r="AQ108" s="6"/>
-      <c r="AR108" s="7"/>
-      <c r="AS108" s="7"/>
-      <c r="AT108" s="7"/>
-      <c r="AU108" s="7"/>
-      <c r="AV108" s="7"/>
-      <c r="AW108" s="7"/>
-      <c r="AX108" s="7"/>
-      <c r="AY108" s="7"/>
-      <c r="AZ108" s="8"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="3"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="2"/>
+      <c r="AS108" s="2"/>
+      <c r="AT108" s="2"/>
+      <c r="AU108" s="2"/>
+      <c r="AV108" s="2"/>
+      <c r="AW108" s="2"/>
+      <c r="AX108" s="2"/>
+      <c r="AY108" s="2"/>
+      <c r="AZ108" s="3"/>
+    </row>
+    <row r="109" spans="1:52">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK109" s="2"/>
+      <c r="AL109" s="2"/>
+      <c r="AM109" s="2"/>
+      <c r="AN109" s="2"/>
+      <c r="AO109" s="2"/>
+      <c r="AP109" s="3"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="2"/>
+      <c r="AS109" s="2"/>
+      <c r="AT109" s="2"/>
+      <c r="AU109" s="2"/>
+      <c r="AV109" s="2"/>
+      <c r="AW109" s="2"/>
+      <c r="AX109" s="2"/>
+      <c r="AY109" s="2"/>
+      <c r="AZ109" s="3"/>
+    </row>
+    <row r="110" spans="1:52">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="2"/>
+      <c r="AN110" s="2"/>
+      <c r="AO110" s="2"/>
+      <c r="AP110" s="3"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="2"/>
+      <c r="AS110" s="2"/>
+      <c r="AT110" s="2"/>
+      <c r="AU110" s="2"/>
+      <c r="AV110" s="2"/>
+      <c r="AW110" s="2"/>
+      <c r="AX110" s="2"/>
+      <c r="AY110" s="2"/>
+      <c r="AZ110" s="3"/>
+    </row>
+    <row r="111" spans="1:52">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="3"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="2"/>
+      <c r="AS111" s="2"/>
+      <c r="AT111" s="2"/>
+      <c r="AU111" s="2"/>
+      <c r="AV111" s="2"/>
+      <c r="AW111" s="2"/>
+      <c r="AX111" s="2"/>
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="3"/>
+    </row>
+    <row r="112" spans="1:52">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="134"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="3"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="2"/>
+      <c r="AS112" s="2"/>
+      <c r="AT112" s="2"/>
+      <c r="AU112" s="2"/>
+      <c r="AV112" s="2"/>
+      <c r="AW112" s="2"/>
+      <c r="AX112" s="2"/>
+      <c r="AY112" s="2"/>
+      <c r="AZ112" s="3"/>
+    </row>
+    <row r="113" spans="1:52">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="2"/>
+      <c r="AS113" s="2"/>
+      <c r="AT113" s="2"/>
+      <c r="AU113" s="2"/>
+      <c r="AV113" s="2"/>
+      <c r="AW113" s="2"/>
+      <c r="AX113" s="2"/>
+      <c r="AY113" s="2"/>
+      <c r="AZ113" s="3"/>
+    </row>
+    <row r="114" spans="1:52">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="2"/>
+      <c r="AS114" s="2"/>
+      <c r="AT114" s="2"/>
+      <c r="AU114" s="2"/>
+      <c r="AV114" s="2"/>
+      <c r="AW114" s="2"/>
+      <c r="AX114" s="2"/>
+      <c r="AY114" s="2"/>
+      <c r="AZ114" s="3"/>
+    </row>
+    <row r="115" spans="1:52">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="3"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="2"/>
+      <c r="AS115" s="2"/>
+      <c r="AT115" s="2"/>
+      <c r="AU115" s="2"/>
+      <c r="AV115" s="2"/>
+      <c r="AW115" s="2"/>
+      <c r="AX115" s="2"/>
+      <c r="AY115" s="2"/>
+      <c r="AZ115" s="3"/>
+    </row>
+    <row r="116" spans="1:52">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
+      <c r="AK116" s="2"/>
+      <c r="AL116" s="2"/>
+      <c r="AM116" s="2"/>
+      <c r="AN116" s="2"/>
+      <c r="AO116" s="2"/>
+      <c r="AP116" s="3"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="2"/>
+      <c r="AS116" s="2"/>
+      <c r="AT116" s="2"/>
+      <c r="AU116" s="2"/>
+      <c r="AV116" s="2"/>
+      <c r="AW116" s="2"/>
+      <c r="AX116" s="2"/>
+      <c r="AY116" s="2"/>
+      <c r="AZ116" s="3"/>
+    </row>
+    <row r="117" spans="1:52">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="2"/>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="2"/>
+      <c r="AJ117" s="2"/>
+      <c r="AK117" s="2"/>
+      <c r="AL117" s="2"/>
+      <c r="AM117" s="2"/>
+      <c r="AN117" s="2"/>
+      <c r="AO117" s="2"/>
+      <c r="AP117" s="3"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="2"/>
+      <c r="AS117" s="2"/>
+      <c r="AT117" s="2"/>
+      <c r="AU117" s="2"/>
+      <c r="AV117" s="2"/>
+      <c r="AW117" s="2"/>
+      <c r="AX117" s="2"/>
+      <c r="AY117" s="2"/>
+      <c r="AZ117" s="3"/>
+    </row>
+    <row r="118" spans="1:52">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
+      <c r="AC118" s="7"/>
+      <c r="AD118" s="7"/>
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="7"/>
+      <c r="AG118" s="7"/>
+      <c r="AH118" s="7"/>
+      <c r="AI118" s="7"/>
+      <c r="AJ118" s="7"/>
+      <c r="AK118" s="7"/>
+      <c r="AL118" s="7"/>
+      <c r="AM118" s="7"/>
+      <c r="AN118" s="7"/>
+      <c r="AO118" s="7"/>
+      <c r="AP118" s="8"/>
+      <c r="AQ118" s="6"/>
+      <c r="AR118" s="7"/>
+      <c r="AS118" s="7"/>
+      <c r="AT118" s="7"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="7"/>
+      <c r="AW118" s="7"/>
+      <c r="AX118" s="7"/>
+      <c r="AY118" s="7"/>
+      <c r="AZ118" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7876,16 +8612,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7910,290 +8636,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -8203,7 +8929,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -8213,7 +8939,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -8222,7 +8948,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -8232,7 +8958,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -8242,7 +8968,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -8275,12 +9001,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -8319,35 +9045,35 @@
         <f>ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
+      <c r="B11" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
@@ -8365,7 +9091,7 @@
       <c r="AM11" s="25"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="20"/>
@@ -8384,37 +9110,37 @@
         <f t="shared" ref="A12:A17" si="0">ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
+      <c r="B12" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
@@ -8432,7 +9158,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -8451,31 +9177,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
+      <c r="B13" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -8497,7 +9223,7 @@
       <c r="AM13" s="25"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="20"/>
@@ -8516,31 +9242,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
+      <c r="B14" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
       <c r="U14" s="27"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -8562,7 +9288,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="20"/>
@@ -8581,29 +9307,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
+      <c r="B15" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
       <c r="U15" s="27"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -8624,49 +9350,49 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="90"/>
+      <c r="AO15" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP15" s="108"/>
+      <c r="AQ15" s="108"/>
+      <c r="AR15" s="108"/>
+      <c r="AS15" s="108"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="108"/>
+      <c r="AV15" s="108"/>
+      <c r="AW15" s="108"/>
+      <c r="AX15" s="108"/>
+      <c r="AY15" s="108"/>
+      <c r="AZ15" s="109"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
+      <c r="B16" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="27"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -8688,7 +9414,7 @@
       <c r="AM16" s="25"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AP16" s="20"/>
       <c r="AQ16" s="20"/>
@@ -8707,29 +9433,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
+      <c r="B17" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
       <c r="U17" s="27"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -8751,7 +9477,7 @@
       <c r="AM17" s="25"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="20"/>
@@ -8767,21 +9493,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
@@ -8798,26 +9529,21 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
     <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8842,294 +9568,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41557</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81">
         <v>41666</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -9139,7 +9865,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -9149,7 +9875,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -9158,7 +9884,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -9168,7 +9894,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -9178,7 +9904,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -9211,12 +9937,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -9255,485 +9981,535 @@
         <f t="shared" ref="A11:A17" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="120"/>
+      <c r="B11" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="127"/>
+      <c r="AO11" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="114"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f>ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="120"/>
+      <c r="B12" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="127"/>
+      <c r="AO12" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="114"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="120"/>
+      <c r="B13" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="127"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="114"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="131"/>
-      <c r="AR14" s="131"/>
-      <c r="AS14" s="131"/>
-      <c r="AT14" s="131"/>
-      <c r="AU14" s="131"/>
-      <c r="AV14" s="131"/>
-      <c r="AW14" s="131"/>
-      <c r="AX14" s="131"/>
-      <c r="AY14" s="131"/>
-      <c r="AZ14" s="132"/>
+      <c r="B14" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="127"/>
+      <c r="AO14" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="123"/>
+      <c r="AR14" s="123"/>
+      <c r="AS14" s="123"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="123"/>
+      <c r="AV14" s="123"/>
+      <c r="AW14" s="123"/>
+      <c r="AX14" s="123"/>
+      <c r="AY14" s="123"/>
+      <c r="AZ14" s="124"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="131"/>
-      <c r="AR15" s="131"/>
-      <c r="AS15" s="131"/>
-      <c r="AT15" s="131"/>
-      <c r="AU15" s="131"/>
-      <c r="AV15" s="131"/>
-      <c r="AW15" s="131"/>
-      <c r="AX15" s="131"/>
-      <c r="AY15" s="131"/>
-      <c r="AZ15" s="132"/>
+      <c r="B15" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="126"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="126"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="127"/>
+      <c r="AO15" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="123"/>
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="123"/>
+      <c r="AZ15" s="124"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="115"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="120"/>
+      <c r="B16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="114"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="120"/>
+      <c r="B17" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
     <mergeCell ref="AO15:AZ15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="J16:Q16"/>
@@ -9748,63 +10524,13 @@
     <mergeCell ref="U15:X15"/>
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9829,290 +10555,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="56" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="80"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64" t="s">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="67">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="81">
         <v>41666</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="56" t="s">
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="56" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="106" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="95"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="111"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -10122,7 +10848,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -10132,7 +10858,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -10141,7 +10867,7 @@
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
@@ -10151,7 +10877,7 @@
       <c r="AE9" s="32"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35"/>
@@ -10161,7 +10887,7 @@
       <c r="AM9" s="35"/>
       <c r="AN9" s="36"/>
       <c r="AO9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -10194,12 +10920,12 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
       <c r="U10" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
@@ -10238,493 +10964,503 @@
         <f t="shared" ref="A11:A13" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="115" t="s">
+      <c r="B11" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="116"/>
-      <c r="AJ11" s="116"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="120"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="127"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="114"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="55">
         <f>ROW()-10</f>
         <v>2</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="115" t="s">
+      <c r="B12" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="116"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="120"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="127"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="114"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="120"/>
+      <c r="B13" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="127"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="114"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="55">
         <f t="shared" ref="A14:A17" si="1">ROW()-10</f>
         <v>4</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="119"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="120"/>
+      <c r="B14" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="127"/>
+      <c r="AO14" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="114"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B15" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="125"/>
-      <c r="AL15" s="125"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="120"/>
+      <c r="B15" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="114"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="55">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B16" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="115"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="120"/>
+      <c r="B16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="127"/>
+      <c r="AO16" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="114"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="55">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="120"/>
+      <c r="B17" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="R11:T11"/>
@@ -10741,43 +11477,33 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
